--- a/va_facility_data_2025-02-20/South Santa Rosa VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Santa%20Rosa%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/South Santa Rosa VA Clinic - Facility Data.xlsx"; filename*=UTF-8''South%20Santa%20Rosa%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdc01fc5a354a4daeb850e3d809741888"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R36a7763f8bbf42419796914513a2f1d4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb4a20166004f454d8f8942f6a29d3319"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4d24288613eb46b4bc70ef7d9827f4fa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3d32ebd7c71c467bb6629212016482d6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf277709e3d384e0aa3106ca6a39e28f2"/>
   </x:sheets>
 </x:workbook>
 </file>
